--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -3529,7 +3529,7 @@
         <v>134.05420</v>
       </c>
       <c r="D83" t="str">
-        <v>高松市男木コミュニティセンター</v>
+        <v>テスト</v>
       </c>
       <c r="E83" t="str">
         <v>高松市男木町1988</v>
@@ -11656,10 +11656,10 @@
         <v>314</v>
       </c>
       <c r="B297" t="str">
-        <v>34.19781482325948</v>
+        <v>34.19379864214993</v>
       </c>
       <c r="C297" t="str">
-        <v>133.99490707252568</v>
+        <v>133.97585758859623</v>
       </c>
       <c r="D297" t="str">
         <v>綾川町立枌所公民館</v>
